--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slit1-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slit1-Robo2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1784056666666667</v>
+        <v>0.4218206666666666</v>
       </c>
       <c r="H2">
-        <v>0.5352170000000001</v>
+        <v>1.265462</v>
       </c>
       <c r="I2">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="J2">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.655628666666667</v>
+        <v>1.302860333333333</v>
       </c>
       <c r="N2">
-        <v>4.966886000000001</v>
+        <v>3.908581</v>
       </c>
       <c r="O2">
-        <v>0.9788840386998182</v>
+        <v>0.9669439908960468</v>
       </c>
       <c r="P2">
-        <v>0.9788840386998183</v>
+        <v>0.9669439908960467</v>
       </c>
       <c r="Q2">
-        <v>0.2953735360291112</v>
+        <v>0.5495734143802221</v>
       </c>
       <c r="R2">
-        <v>2.658361824262001</v>
+        <v>4.946160729421999</v>
       </c>
       <c r="S2">
-        <v>0.09893196243996573</v>
+        <v>0.1977202436776351</v>
       </c>
       <c r="T2">
-        <v>0.09893196243996574</v>
+        <v>0.1977202436776351</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1784056666666667</v>
+        <v>0.4218206666666666</v>
       </c>
       <c r="H3">
-        <v>0.5352170000000001</v>
+        <v>1.265462</v>
       </c>
       <c r="I3">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="J3">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.03365</v>
       </c>
       <c r="O3">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="P3">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="Q3">
-        <v>0.002001116894444445</v>
+        <v>0.00473142181111111</v>
       </c>
       <c r="R3">
-        <v>0.01801005205</v>
+        <v>0.0425827963</v>
       </c>
       <c r="S3">
-        <v>0.0006702510458474075</v>
+        <v>0.001702225487907868</v>
       </c>
       <c r="T3">
-        <v>0.0006702510458474075</v>
+        <v>0.001702225487907867</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1784056666666667</v>
+        <v>0.4218206666666666</v>
       </c>
       <c r="H4">
-        <v>0.5352170000000001</v>
+        <v>1.265462</v>
       </c>
       <c r="I4">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="J4">
-        <v>0.1010660696555743</v>
+        <v>0.204479520571209</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.02449766666666667</v>
+        <v>0.033323</v>
       </c>
       <c r="N4">
-        <v>0.073493</v>
+        <v>0.099969</v>
       </c>
       <c r="O4">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="P4">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="Q4">
-        <v>0.004370522553444445</v>
+        <v>0.01405633007533333</v>
       </c>
       <c r="R4">
-        <v>0.039334702981</v>
+        <v>0.126506970678</v>
       </c>
       <c r="S4">
-        <v>0.001463856169761174</v>
+        <v>0.005057051405666022</v>
       </c>
       <c r="T4">
-        <v>0.001463856169761175</v>
+        <v>0.005057051405666021</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>1.875599</v>
       </c>
       <c r="I5">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645684</v>
       </c>
       <c r="J5">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645683</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.655628666666667</v>
+        <v>1.302860333333333</v>
       </c>
       <c r="N5">
-        <v>4.966886000000001</v>
+        <v>3.908581</v>
       </c>
       <c r="O5">
-        <v>0.9788840386998182</v>
+        <v>0.9669439908960468</v>
       </c>
       <c r="P5">
-        <v>0.9788840386998183</v>
+        <v>0.9669439908960467</v>
       </c>
       <c r="Q5">
-        <v>1.035098490523778</v>
+        <v>0.8145478461132221</v>
       </c>
       <c r="R5">
-        <v>9.315886414714001</v>
+        <v>7.330930615018999</v>
       </c>
       <c r="S5">
-        <v>0.3466943124385758</v>
+        <v>0.2930501993118155</v>
       </c>
       <c r="T5">
-        <v>0.3466943124385758</v>
+        <v>0.2930501993118155</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.875599</v>
       </c>
       <c r="I6">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645684</v>
       </c>
       <c r="J6">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645683</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>0.03365</v>
       </c>
       <c r="O6">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="P6">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="Q6">
         <v>0.00701265626111111</v>
@@ -821,10 +821,10 @@
         <v>0.06311390635</v>
       </c>
       <c r="S6">
-        <v>0.002348808411056359</v>
+        <v>0.002522946104185277</v>
       </c>
       <c r="T6">
-        <v>0.002348808411056359</v>
+        <v>0.002522946104185276</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.875599</v>
       </c>
       <c r="I7">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645684</v>
       </c>
       <c r="J7">
-        <v>0.3541730161409773</v>
+        <v>0.3030684321645683</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,28 +865,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.02449766666666667</v>
+        <v>0.033323</v>
       </c>
       <c r="N7">
-        <v>0.073493</v>
+        <v>0.099969</v>
       </c>
       <c r="O7">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="P7">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="Q7">
-        <v>0.01531593303411111</v>
+        <v>0.02083352849233333</v>
       </c>
       <c r="R7">
-        <v>0.137843397307</v>
+        <v>0.187501756431</v>
       </c>
       <c r="S7">
-        <v>0.005129895291345171</v>
+        <v>0.007495286748567546</v>
       </c>
       <c r="T7">
-        <v>0.005129895291345172</v>
+        <v>0.007495286748567544</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1162336666666667</v>
+        <v>0.469433</v>
       </c>
       <c r="H8">
-        <v>0.348701</v>
+        <v>1.408299</v>
       </c>
       <c r="I8">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="J8">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.655628666666667</v>
+        <v>1.302860333333333</v>
       </c>
       <c r="N8">
-        <v>4.966886000000001</v>
+        <v>3.908581</v>
       </c>
       <c r="O8">
-        <v>0.9788840386998182</v>
+        <v>0.9669439908960468</v>
       </c>
       <c r="P8">
-        <v>0.9788840386998183</v>
+        <v>0.9669439908960467</v>
       </c>
       <c r="Q8">
-        <v>0.1924397905651111</v>
+        <v>0.6116056348576666</v>
       </c>
       <c r="R8">
-        <v>1.731958115086</v>
+        <v>5.504450713719</v>
       </c>
       <c r="S8">
-        <v>0.0644554904548594</v>
+        <v>0.2200376000630362</v>
       </c>
       <c r="T8">
-        <v>0.0644554904548594</v>
+        <v>0.2200376000630361</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1162336666666667</v>
+        <v>0.469433</v>
       </c>
       <c r="H9">
-        <v>0.348701</v>
+        <v>1.408299</v>
       </c>
       <c r="I9">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="J9">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,22 +995,22 @@
         <v>0.03365</v>
       </c>
       <c r="O9">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="P9">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="Q9">
-        <v>0.001303754294444444</v>
+        <v>0.005265473483333333</v>
       </c>
       <c r="R9">
-        <v>0.01173378865</v>
+        <v>0.04738926135</v>
       </c>
       <c r="S9">
-        <v>0.0004366774783649189</v>
+        <v>0.001894361468297872</v>
       </c>
       <c r="T9">
-        <v>0.0004366774783649189</v>
+        <v>0.001894361468297872</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1162336666666667</v>
+        <v>0.469433</v>
       </c>
       <c r="H10">
-        <v>0.348701</v>
+        <v>1.408299</v>
       </c>
       <c r="I10">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="J10">
-        <v>0.06584588971383273</v>
+        <v>0.2275598195290835</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.02449766666666667</v>
+        <v>0.033323</v>
       </c>
       <c r="N10">
-        <v>0.073493</v>
+        <v>0.099969</v>
       </c>
       <c r="O10">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="P10">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="Q10">
-        <v>0.002847453621444445</v>
+        <v>0.015642915859</v>
       </c>
       <c r="R10">
-        <v>0.025627082593</v>
+        <v>0.140786242731</v>
       </c>
       <c r="S10">
-        <v>0.0009537217806084098</v>
+        <v>0.00562785799774948</v>
       </c>
       <c r="T10">
-        <v>0.0009537217806084099</v>
+        <v>0.005627857997749479</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.845399</v>
+        <v>0.546446</v>
       </c>
       <c r="H11">
-        <v>2.536197</v>
+        <v>1.639338</v>
       </c>
       <c r="I11">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351392</v>
       </c>
       <c r="J11">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351391</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.655628666666667</v>
+        <v>1.302860333333333</v>
       </c>
       <c r="N11">
-        <v>4.966886000000001</v>
+        <v>3.908581</v>
       </c>
       <c r="O11">
-        <v>0.9788840386998182</v>
+        <v>0.9669439908960468</v>
       </c>
       <c r="P11">
-        <v>0.9788840386998183</v>
+        <v>0.9669439908960467</v>
       </c>
       <c r="Q11">
-        <v>1.399666819171334</v>
+        <v>0.7119428177086666</v>
       </c>
       <c r="R11">
-        <v>12.597001372542</v>
+        <v>6.407485359378</v>
       </c>
       <c r="S11">
-        <v>0.4688022733664172</v>
+        <v>0.2561359478435599</v>
       </c>
       <c r="T11">
-        <v>0.4688022733664173</v>
+        <v>0.2561359478435599</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.845399</v>
+        <v>0.546446</v>
       </c>
       <c r="H12">
-        <v>2.536197</v>
+        <v>1.639338</v>
       </c>
       <c r="I12">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351392</v>
       </c>
       <c r="J12">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351391</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,22 +1181,22 @@
         <v>0.03365</v>
       </c>
       <c r="O12">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="P12">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="Q12">
-        <v>0.009482558783333333</v>
+        <v>0.006129302633333333</v>
       </c>
       <c r="R12">
-        <v>0.08534302905</v>
+        <v>0.0551637237</v>
       </c>
       <c r="S12">
-        <v>0.003176073801327419</v>
+        <v>0.002205141621712788</v>
       </c>
       <c r="T12">
-        <v>0.003176073801327419</v>
+        <v>0.002205141621712788</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.845399</v>
+        <v>0.546446</v>
       </c>
       <c r="H13">
-        <v>2.536197</v>
+        <v>1.639338</v>
       </c>
       <c r="I13">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351392</v>
       </c>
       <c r="J13">
-        <v>0.4789150244896155</v>
+        <v>0.2648922277351391</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.02449766666666667</v>
+        <v>0.033323</v>
       </c>
       <c r="N13">
-        <v>0.073493</v>
+        <v>0.099969</v>
       </c>
       <c r="O13">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="P13">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="Q13">
-        <v>0.02071030290233333</v>
+        <v>0.018209220058</v>
       </c>
       <c r="R13">
-        <v>0.186392726121</v>
+        <v>0.163882980522</v>
       </c>
       <c r="S13">
-        <v>0.006936677321870906</v>
+        <v>0.006551138269866441</v>
       </c>
       <c r="T13">
-        <v>0.006936677321870907</v>
+        <v>0.006551138269866439</v>
       </c>
     </row>
   </sheetData>
